--- a/analysis/metadata/P06_2/P06_2_minimal_metadata.xlsx
+++ b/analysis/metadata/P06_2/P06_2_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,16 +451,26 @@
         </is>
       </c>
       <c r="C2">
-        <v>57.0145</v>
+        <v>57.1088</v>
       </c>
       <c r="D2">
-        <v>9.9854</v>
+        <v>10.0826</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2019-11-07</t>
@@ -468,7 +478,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">water sample from pollution investigation. boring b1. </t>
+          <t>potentially contaminated groundwater city, Langholt site B2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -478,7 +488,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -489,6 +499,21 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -504,16 +529,26 @@
         </is>
       </c>
       <c r="C3">
-        <v>57.0145</v>
+        <v>57.1088</v>
       </c>
       <c r="D3">
-        <v>9.9854</v>
+        <v>10.0826</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Langholt - Site B2</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2019-11-07</t>
@@ -521,7 +556,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">water sample from pollution investigation. boring b2. </t>
+          <t>potentially contaminated groundwater city, Langholt site B3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -531,7 +566,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -542,6 +577,21 @@
       <c r="M3" t="inlineStr">
         <is>
           <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
@@ -557,16 +607,26 @@
         </is>
       </c>
       <c r="C4">
-        <v>57.0145</v>
+        <v>57.1088</v>
       </c>
       <c r="D4">
-        <v>9.9854</v>
+        <v>10.0826</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>polluted_soil</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3120</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2019-11-07</t>
@@ -574,7 +634,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>water sample from pollution investigation. boring b3.</t>
+          <t>potentially contaminated groundwater city, Langholt site B1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -584,7 +644,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Soil</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -595,6 +655,2605 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MFD13530</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>57.1088</v>
+      </c>
+      <c r="D5">
+        <v>10.0826</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Langholt - Site B2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (7 meter) from Langholt - Site B2, ID: mfd016-ds-01</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MFD13529</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>57.1088</v>
+      </c>
+      <c r="D6">
+        <v>10.0826</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Langholt - Site B2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (7 meter) from Langholt - Site B2, ID: mfd016-ds-02</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MFD13528</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>57.1088</v>
+      </c>
+      <c r="D7">
+        <v>10.0826</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.2 meter) from Langholt - Site B3, ID: mfd016-ds-03</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MFD13527</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>57.1088</v>
+      </c>
+      <c r="D8">
+        <v>10.0826</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.2 meter) from Langholt - Site B3, ID: mfd016-ds-04</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MFD13526</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>57.1088</v>
+      </c>
+      <c r="D9">
+        <v>10.0826</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.5 meter) from Langholt - Site B3, ID: mfd016-ds-05</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MFD13525</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>57.1088</v>
+      </c>
+      <c r="D10">
+        <v>10.0826</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.5 meter) from Langholt - Site B3, ID: mfd016-ds-06</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MFD13524</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>57.1088</v>
+      </c>
+      <c r="D11">
+        <v>10.0826</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (1 meter) from Langholt - Site B3, ID: mfd016-ds-07</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MFD13523</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>57.1088</v>
+      </c>
+      <c r="D12">
+        <v>10.0826</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (1 meter) from Langholt - Site B3, ID: mfd016-ds-08</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MFD13522</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>57.1088</v>
+      </c>
+      <c r="D13">
+        <v>10.0826</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (2 meter) from Langholt - Site B3, ID: mfd016-ds-09</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MFD13521</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>57.1088</v>
+      </c>
+      <c r="D14">
+        <v>10.0826</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (2 meter) from Langholt - Site B3, ID: mfd016-ds-10</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MFD13520</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>57.1088</v>
+      </c>
+      <c r="D15">
+        <v>10.0826</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (3 meter) from Langholt - Site B3, ID: mfd016-ds-11</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MFD13519</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>57.1088</v>
+      </c>
+      <c r="D16">
+        <v>10.0826</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (3 meter) from Langholt - Site B3, ID: mfd016-ds-12</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MFD13518</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>57.1088</v>
+      </c>
+      <c r="D17">
+        <v>10.0826</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (4 meter) from Langholt - Site B3, ID: mfd016-ds-13</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MFD13517</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>57.1088</v>
+      </c>
+      <c r="D18">
+        <v>10.0826</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (4 meter) from Langholt - Site B3, ID: mfd016-ds-14</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MFD13516</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>57.1088</v>
+      </c>
+      <c r="D19">
+        <v>10.0826</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (5 meter) from Langholt - Site B3, ID: mfd016-ds-15</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MFD13515</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>57.1088</v>
+      </c>
+      <c r="D20">
+        <v>10.0826</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (5 meter) from Langholt - Site B3, ID: mfd016-ds-16</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MFD13514</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>57.1088</v>
+      </c>
+      <c r="D21">
+        <v>10.0826</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (6 meter) from Langholt - Site B3, ID: mfd016-ds-17</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MFD13513</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>57.1088</v>
+      </c>
+      <c r="D22">
+        <v>10.0826</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (6 meter) from Langholt - Site B3, ID: mfd016-ds-18</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MFD13512</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>57.1088</v>
+      </c>
+      <c r="D23">
+        <v>10.0826</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (7 meter) from Langholt - Site B3, ID: mfd016-ds-19</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MFD13511</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>57.1088</v>
+      </c>
+      <c r="D24">
+        <v>10.0826</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Langholt - Site B3</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (7 meter) from Langholt - Site B3, ID: mfd016-ds-20</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MFD13510</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>57.1088</v>
+      </c>
+      <c r="D25">
+        <v>10.0826</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.2 meter) from Langholt - Site B1, ID: mfd016-ds-21</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MFD13509</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>57.1088</v>
+      </c>
+      <c r="D26">
+        <v>10.0826</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.2 meter) from Langholt - Site B1, ID: mfd016-ds-22</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MFD13508</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>57.1088</v>
+      </c>
+      <c r="D27">
+        <v>10.0826</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.5 meter) from Langholt - Site B1, ID: mfd016-ds-23</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MFD13507</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>57.1088</v>
+      </c>
+      <c r="D28">
+        <v>10.0826</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (0.5 meter) from Langholt - Site B1, ID: mfd016-ds-24</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MFD13506</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>57.1088</v>
+      </c>
+      <c r="D29">
+        <v>10.0826</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (1 meter) from Langholt - Site B1, ID: mfd016-ds-25</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MFD13505</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>57.1088</v>
+      </c>
+      <c r="D30">
+        <v>10.0826</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (1 meter) from Langholt - Site B1, ID: mfd016-ds-26</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MFD13504</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>57.1088</v>
+      </c>
+      <c r="D31">
+        <v>10.0826</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (2 meter) from Langholt - Site B1, ID: mfd016-ds-27</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MFD13503</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>57.1088</v>
+      </c>
+      <c r="D32">
+        <v>10.0826</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (2 meter) from Langholt - Site B1, ID: mfd016-ds-28</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MFD13502</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>57.1088</v>
+      </c>
+      <c r="D33">
+        <v>10.0826</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (3 meter) from Langholt - Site B1, ID: mfd016-ds-29</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MFD13501</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>57.1088</v>
+      </c>
+      <c r="D34">
+        <v>10.0826</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (3 meter) from Langholt - Site B1, ID: mfd016-ds-30</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MFD13500</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>57.1088</v>
+      </c>
+      <c r="D35">
+        <v>10.0826</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (4 meter) from Langholt - Site B1, ID: mfd016-ds-31</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MFD13499</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>57.1088</v>
+      </c>
+      <c r="D36">
+        <v>10.0826</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (4 meter) from Langholt - Site B1, ID: mfd016-ds-32</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MFD13498</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>57.1088</v>
+      </c>
+      <c r="D37">
+        <v>10.0826</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (5 meter) from Langholt - Site B1, ID: mfd016-ds-33</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MFD13497</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>57.1088</v>
+      </c>
+      <c r="D38">
+        <v>10.0826</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (5 meter) from Langholt - Site B1, ID: mfd016-ds-34</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MFD13496</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>57.1088</v>
+      </c>
+      <c r="D39">
+        <v>10.0826</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (6 meter) from Langholt - Site B1, ID: mfd016-ds-35</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MFD13495</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>57.1088</v>
+      </c>
+      <c r="D40">
+        <v>10.0826</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (6 meter) from Langholt - Site B1, ID: mfd016-ds-36</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MFD13494</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>57.1088</v>
+      </c>
+      <c r="D41">
+        <v>10.0826</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (7 meter) from Langholt - Site B1, ID: mfd016-ds-37</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MFD13493</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>soil</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>57.1088</v>
+      </c>
+      <c r="D42">
+        <v>10.0826</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>polluted_soil</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Langholt - Site B1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>potentially contaminated soil (7 meter) from Langholt - Site B1, ID: mfd016-ds-38</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>P06_2</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Potential pollution</t>
         </is>
       </c>
     </row>
